--- a/Backlog del Producto.xlsx
+++ b/Backlog del Producto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labf202\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A2D380-D39B-4CF3-8DDC-351370DE2E5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C502319-2B51-4981-A5BA-8AF1441F760D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,37 +1044,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1087,11 +1056,58 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -1166,31 +1182,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1310,149 +1302,262 @@
           <cell r="J7">
             <v>8</v>
           </cell>
+          <cell r="L7">
+            <v>1</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="J8">
             <v>12</v>
+          </cell>
+          <cell r="L8">
+            <v>1</v>
           </cell>
         </row>
         <row r="9">
           <cell r="J9">
             <v>12</v>
           </cell>
+          <cell r="L9">
+            <v>1</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="J10">
             <v>8</v>
+          </cell>
+          <cell r="L10">
+            <v>3</v>
           </cell>
         </row>
         <row r="11">
           <cell r="J11">
             <v>8</v>
           </cell>
+          <cell r="L11">
+            <v>2</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="J12">
             <v>8</v>
+          </cell>
+          <cell r="L12">
+            <v>2</v>
           </cell>
         </row>
         <row r="13">
           <cell r="J13">
             <v>12</v>
           </cell>
+          <cell r="L13">
+            <v>1</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="J14">
             <v>8</v>
+          </cell>
+          <cell r="L14">
+            <v>2</v>
           </cell>
         </row>
         <row r="15">
           <cell r="J15">
             <v>12</v>
           </cell>
+          <cell r="L15">
+            <v>3</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="J16">
             <v>16</v>
+          </cell>
+          <cell r="L16">
+            <v>1</v>
           </cell>
         </row>
         <row r="17">
           <cell r="J17">
             <v>20</v>
           </cell>
+          <cell r="L17">
+            <v>1</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="J18">
             <v>20</v>
+          </cell>
+          <cell r="L18">
+            <v>1</v>
           </cell>
         </row>
         <row r="19">
           <cell r="J19">
             <v>20</v>
           </cell>
+          <cell r="L19">
+            <v>2</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="J20">
             <v>16</v>
+          </cell>
+          <cell r="L20">
+            <v>3</v>
           </cell>
         </row>
         <row r="21">
           <cell r="J21">
             <v>16</v>
           </cell>
+          <cell r="L21">
+            <v>3</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="J22">
             <v>16</v>
+          </cell>
+          <cell r="L22">
+            <v>1</v>
           </cell>
         </row>
         <row r="23">
           <cell r="J23">
             <v>8</v>
           </cell>
+          <cell r="L23">
+            <v>2</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="J24">
             <v>8</v>
+          </cell>
+          <cell r="L24">
+            <v>2</v>
           </cell>
         </row>
         <row r="25">
           <cell r="J25">
             <v>16</v>
           </cell>
+          <cell r="L25">
+            <v>3</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="J26">
             <v>8</v>
+          </cell>
+          <cell r="L26">
+            <v>4</v>
           </cell>
         </row>
         <row r="27">
           <cell r="J27">
             <v>12</v>
           </cell>
+          <cell r="L27">
+            <v>4</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="J28">
             <v>8</v>
+          </cell>
+          <cell r="L28">
+            <v>4</v>
           </cell>
         </row>
         <row r="29">
           <cell r="J29">
             <v>8</v>
           </cell>
+          <cell r="L29">
+            <v>4</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="J30">
             <v>12</v>
+          </cell>
+          <cell r="L30">
+            <v>5</v>
           </cell>
         </row>
         <row r="31">
           <cell r="J31">
             <v>8</v>
           </cell>
+          <cell r="L31">
+            <v>5</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="J32">
             <v>8</v>
+          </cell>
+          <cell r="L32">
+            <v>5</v>
           </cell>
         </row>
         <row r="33">
           <cell r="J33">
             <v>8</v>
           </cell>
+          <cell r="L33">
+            <v>5</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="J34">
             <v>16</v>
+          </cell>
+          <cell r="L34">
+            <v>5</v>
           </cell>
         </row>
         <row r="35">
           <cell r="J35">
             <v>16</v>
           </cell>
+          <cell r="L35">
+            <v>5</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>5</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1719,14 +1824,14 @@
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1753,14 +1858,14 @@
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1817,18 +1922,18 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="65" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="53" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="51" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
-      <c r="I5" s="50"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="54" t="s">
         <v>11</v>
       </c>
@@ -1837,7 +1942,7 @@
       <c r="M5" s="52"/>
       <c r="N5" s="52"/>
       <c r="O5" s="52"/>
-      <c r="P5" s="50"/>
+      <c r="P5" s="53"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1909,16 +2014,16 @@
     </row>
     <row r="7" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="55" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -1963,12 +2068,12 @@
     </row>
     <row r="8" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="59"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="19" t="s">
         <v>32</v>
       </c>
@@ -2011,12 +2116,12 @@
     </row>
     <row r="9" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="59"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="19" t="s">
         <v>33</v>
       </c>
@@ -2059,12 +2164,12 @@
     </row>
     <row r="10" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="59"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="19" t="s">
         <v>34</v>
       </c>
@@ -2107,12 +2212,12 @@
     </row>
     <row r="11" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="59"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="19" t="s">
         <v>38</v>
       </c>
@@ -2155,12 +2260,12 @@
     </row>
     <row r="12" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="60"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="19" t="s">
         <v>39</v>
       </c>
@@ -2205,16 +2310,16 @@
     </row>
     <row r="13" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="55" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="19" t="s">
@@ -2259,12 +2364,12 @@
     </row>
     <row r="14" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="59"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
       <c r="F14" s="19" t="s">
         <v>41</v>
       </c>
@@ -2307,12 +2412,12 @@
     </row>
     <row r="15" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="59"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="19" t="s">
         <v>44</v>
       </c>
@@ -2355,12 +2460,12 @@
     </row>
     <row r="16" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="60"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="19" t="s">
         <v>45</v>
       </c>
@@ -2403,16 +2508,16 @@
     </row>
     <row r="17" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="55" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="59" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="19" t="s">
@@ -2457,12 +2562,12 @@
     </row>
     <row r="18" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="59"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="19" t="s">
         <v>47</v>
       </c>
@@ -2505,12 +2610,12 @@
     </row>
     <row r="19" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="59"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="19" t="s">
         <v>49</v>
       </c>
@@ -2553,10 +2658,10 @@
     </row>
     <row r="20" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="59"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="19" t="s">
         <v>50</v>
       </c>
@@ -2599,12 +2704,12 @@
     </row>
     <row r="21" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="60"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="19" t="s">
         <v>51</v>
       </c>
@@ -2647,16 +2752,16 @@
     </row>
     <row r="22" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="55" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="59" t="s">
         <v>122</v>
       </c>
       <c r="F22" s="19" t="s">
@@ -2701,12 +2806,12 @@
     </row>
     <row r="23" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="59"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="19" t="s">
         <v>53</v>
       </c>
@@ -2749,12 +2854,12 @@
     </row>
     <row r="24" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="59"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="19" t="s">
         <v>55</v>
       </c>
@@ -2797,12 +2902,12 @@
     </row>
     <row r="25" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="60"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="19" t="s">
         <v>56</v>
       </c>
@@ -2845,16 +2950,16 @@
     </row>
     <row r="26" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="55" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="59" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="19" t="s">
@@ -2899,12 +3004,12 @@
     </row>
     <row r="27" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="59"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="19" t="s">
         <v>58</v>
       </c>
@@ -2947,12 +3052,12 @@
     </row>
     <row r="28" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="59"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="19" t="s">
         <v>62</v>
       </c>
@@ -2995,12 +3100,12 @@
     </row>
     <row r="29" spans="1:26" ht="48.75" hidden="1" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="60"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="19" t="s">
         <v>63</v>
       </c>
@@ -3043,16 +3148,16 @@
     </row>
     <row r="30" spans="1:26" ht="48.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="55" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="59" t="s">
         <v>68</v>
       </c>
       <c r="F30" s="19" t="s">
@@ -3097,12 +3202,12 @@
     </row>
     <row r="31" spans="1:26" ht="48.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="59"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="19" t="s">
         <v>65</v>
       </c>
@@ -3145,12 +3250,12 @@
     </row>
     <row r="32" spans="1:26" ht="48.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="59"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="19" t="s">
         <v>69</v>
       </c>
@@ -3193,12 +3298,12 @@
     </row>
     <row r="33" spans="1:26" ht="48.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="60"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="19" t="s">
         <v>70</v>
       </c>
@@ -3241,16 +3346,16 @@
     </row>
     <row r="34" spans="1:26" ht="48.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="55" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="59" t="s">
         <v>74</v>
       </c>
       <c r="F34" s="19" t="s">
@@ -3295,12 +3400,12 @@
     </row>
     <row r="35" spans="1:26" ht="48.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="60"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="19" t="s">
         <v>72</v>
       </c>
@@ -29110,6 +29215,20 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="28">
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:P5"/>
     <mergeCell ref="D22:D25"/>
@@ -29124,63 +29243,49 @@
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="E17:E21"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:G955 K7:P955 H9:J955">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>$O7="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G955 K7:P955 H9:J955">
-    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
       <formula>$O7="En Progreso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G955 K7:P955 H9:J955">
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
       <formula>$O7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
       <formula>$O14="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="5" stopIfTrue="1">
       <formula>$O14="In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
       <formula>$O14="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
       <formula>$O10="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
       <formula>$O10="In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
       <formula>$O10="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29202,7 +29307,7 @@
   <dimension ref="A1:J990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="I3" sqref="I3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -29252,22 +29357,22 @@
       <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B3" s="62">
+      <c r="B3" s="47">
         <v>1</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="48">
         <v>45208</v>
       </c>
       <c r="D3" s="39">
         <f>MAX('[1]Backlog del Producto'!J7,'[1]Backlog del Producto'!J8,'[1]Backlog del Producto'!J9,'[1]Backlog del Producto'!J13,'[1]Backlog del Producto'!J16,'[1]Backlog del Producto'!J17,,'[1]Backlog del Producto'!J18,'[1]Backlog del Producto'!J22)/2</f>
         <v>10</v>
       </c>
-      <c r="E3" s="64">
-        <f t="shared" ref="E3:E7" si="0">IF(AND(C3&lt;&gt;"",D3&lt;&gt;""),C3+D3-1,"")</f>
-        <v>45217</v>
-      </c>
-      <c r="F3" s="37">
-        <f>IF(B3="","",SUMIF('Backlog del Producto'!N$7:N$126,Sprints!B3,'Backlog del Producto'!L$7:L$126))</f>
+      <c r="E3" s="49">
+        <f>IF(AND(C3&lt;&gt;"",D3&lt;&gt;""),C3+D3+1,"")</f>
+        <v>45219</v>
+      </c>
+      <c r="F3" s="47">
+        <f>IF(B3="","",SUMIF('[1]Backlog del Producto'!$L$7:$L$35,[1]Sprints!B3,'[1]Backlog del Producto'!J7:J35))</f>
         <v>116</v>
       </c>
       <c r="G3" s="38" t="s">
@@ -29279,24 +29384,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B4" s="62">
+      <c r="B4" s="47">
         <v>2</v>
       </c>
-      <c r="C4" s="65">
-        <f t="shared" ref="C4:C7" si="1">IF(AND(C3&lt;&gt;"",D3&lt;&gt;"",D4&lt;&gt;""),C3+D3,"")</f>
-        <v>45218</v>
+      <c r="C4" s="50">
+        <f>IF(AND(C3&lt;&gt;"",D3&lt;&gt;"",D4&lt;&gt;""),C3+D3+2*(ROUNDDOWN(D3/5,0)),"")</f>
+        <v>45222</v>
       </c>
       <c r="D4" s="39">
         <f>MAX('[1]Backlog del Producto'!J11,'[1]Backlog del Producto'!J12,'[1]Backlog del Producto'!J14,'[1]Backlog del Producto'!J19,'[1]Backlog del Producto'!J23,'[1]Backlog del Producto'!J24,)/2</f>
         <v>10</v>
       </c>
-      <c r="E4" s="64">
-        <f t="shared" si="0"/>
-        <v>45227</v>
-      </c>
-      <c r="F4" s="37">
-        <f>IF(B4="","",SUMIF('Backlog del Producto'!N$7:N$126,Sprints!B4,'Backlog del Producto'!L$7:L$126))</f>
-        <v>60</v>
+      <c r="E4" s="49">
+        <f t="shared" ref="E4:E6" si="0">IF(AND(C4&lt;&gt;"",D4&lt;&gt;""),C4+D4+1,"")</f>
+        <v>45233</v>
+      </c>
+      <c r="F4" s="47">
+        <f>IF(B4="","",SUMIF('[1]Backlog del Producto'!$L$7:$L$35,[1]Sprints!B4,'[1]Backlog del Producto'!J8:J36))</f>
+        <v>72</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>170</v>
@@ -29307,24 +29412,24 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B5" s="62">
+      <c r="B5" s="47">
         <v>3</v>
       </c>
-      <c r="C5" s="65">
-        <f t="shared" si="1"/>
-        <v>45228</v>
+      <c r="C5" s="50">
+        <f t="shared" ref="C5:C7" si="1">IF(AND(C4&lt;&gt;"",D4&lt;&gt;"",D5&lt;&gt;""),C4+D4+2*(ROUNDDOWN(D4/5,0)),"")</f>
+        <v>45236</v>
       </c>
       <c r="D5" s="39">
         <f>MAX('[1]Backlog del Producto'!J10,'[1]Backlog del Producto'!J15,'[1]Backlog del Producto'!J20,'[1]Backlog del Producto'!J21,'[1]Backlog del Producto'!J25)/2</f>
         <v>8</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="49">
         <f t="shared" si="0"/>
-        <v>45235</v>
-      </c>
-      <c r="F5" s="37">
-        <f>IF(B5="","",SUMIF('Backlog del Producto'!N$7:N$126,Sprints!B5,'Backlog del Producto'!L$7:L$126))</f>
-        <v>68</v>
+        <v>45245</v>
+      </c>
+      <c r="F5" s="47">
+        <f>IF(B5="","",SUMIF('[1]Backlog del Producto'!$L$7:$L$35,[1]Sprints!B5,'[1]Backlog del Producto'!J9:J37))</f>
+        <v>64</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>170</v>
@@ -29335,23 +29440,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B6" s="62">
+      <c r="B6" s="47">
         <v>4</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="50">
         <f t="shared" si="1"/>
-        <v>45236</v>
+        <v>45246</v>
       </c>
       <c r="D6" s="39">
         <f>MAX('[1]Backlog del Producto'!J26,'[1]Backlog del Producto'!J27,'[1]Backlog del Producto'!J28,'[1]Backlog del Producto'!J29)/2</f>
         <v>6</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="49">
         <f t="shared" si="0"/>
-        <v>45241</v>
-      </c>
-      <c r="F6" s="37">
-        <f>IF(B6="","",SUMIF('Backlog del Producto'!N$7:N$126,Sprints!B6,'Backlog del Producto'!L$7:L$126))</f>
+        <v>45253</v>
+      </c>
+      <c r="F6" s="47">
+        <f>IF(B6="","",SUMIF('[1]Backlog del Producto'!$L$7:$L$35,[1]Sprints!B6,'[1]Backlog del Producto'!J10:J38))</f>
         <v>36</v>
       </c>
       <c r="G6" s="38" t="s">
@@ -29363,24 +29468,24 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B7" s="62">
+      <c r="B7" s="47">
         <v>5</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="50">
         <f t="shared" si="1"/>
-        <v>45242</v>
+        <v>45254</v>
       </c>
       <c r="D7" s="39">
         <f>MAX('[1]Backlog del Producto'!J30,'[1]Backlog del Producto'!J31,'[1]Backlog del Producto'!J32,'[1]Backlog del Producto'!J33,'[1]Backlog del Producto'!J34,'[1]Backlog del Producto'!J35)/2</f>
         <v>8</v>
       </c>
-      <c r="E7" s="64">
-        <f t="shared" si="0"/>
-        <v>45249</v>
-      </c>
-      <c r="F7" s="37">
-        <f>IF(B7="","",SUMIF('Backlog del Producto'!N$7:N$126,Sprints!B7,'Backlog del Producto'!L$7:L$126))</f>
-        <v>68</v>
+      <c r="E7" s="49">
+        <f>IF(AND(C7&lt;&gt;"",D7&lt;&gt;""),C7+D7+3,"")</f>
+        <v>45265</v>
+      </c>
+      <c r="F7" s="47">
+        <f>IF(B7="","",SUMIF('[1]Backlog del Producto'!$L$7:$L$35,[1]Sprints!B7,'[1]Backlog del Producto'!J11:J39))</f>
+        <v>32</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>170</v>
@@ -32352,53 +32457,53 @@
       <c r="H990" s="13"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H3:I7">
+    <cfRule type="expression" dxfId="10" priority="15" stopIfTrue="1">
+      <formula>OR($G3="Planned",$G3="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:I7">
+    <cfRule type="expression" dxfId="9" priority="16" stopIfTrue="1">
+      <formula>$G3="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+      <formula>OR($G8="Planned",$G8="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+      <formula>$G8="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:G7">
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G7">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G7">
-    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I7">
-    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="B3:F7">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I7">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
-      <formula>$G3="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
-      <formula>OR($G3="Planned",$G3="Unplanned")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>$G3="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:E7">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
-      <formula>OR($G3="Planned",$G3="Unplanned")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:E7">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="B3:F7">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G7" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G7" xr:uid="{502F4141-7799-4CC1-A226-67F77613479A}">
       <formula1>"Planeado,En Progreso,Terminado,No planeado"</formula1>
     </dataValidation>
   </dataValidations>
